--- a/doc/설계/UI/UI-PLC IO 변수.xlsx
+++ b/doc/설계/UI/UI-PLC IO 변수.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
   <si>
     <t>Input</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,11 +306,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>slave - bStart : 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>***변동사항***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tune_result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TuneResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slave_bStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI에서 TRUE로 Trigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tune_Remaining_time</t>
+  </si>
+  <si>
+    <t>추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Main - tune_result </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI에서 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main - tune_Remaining_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -318,7 +353,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,16 +393,29 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -391,17 +439,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -415,6 +452,173 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -431,15 +635,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -451,66 +646,43 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -518,26 +690,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -547,25 +709,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
@@ -574,32 +742,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="보통" xfId="1" builtinId="28"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -634,8 +818,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="표8" displayName="표8" ref="B2:E29" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
-  <autoFilter ref="B2:E29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="표8" displayName="표8" ref="B2:E32" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
+  <autoFilter ref="B2:E32"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Input"/>
     <tableColumn id="2" name="Output"/>
@@ -909,408 +1093,454 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="17.09765625" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.796875" customWidth="1"/>
     <col min="4" max="4" width="26.296875" customWidth="1"/>
-    <col min="5" max="5" width="14.69921875" customWidth="1"/>
-    <col min="7" max="7" width="21.3984375" customWidth="1"/>
+    <col min="5" max="5" width="22.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:10" ht="24.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="G1" s="19" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="G1" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="7"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="G3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="26"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="24"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="24"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="24"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="9" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="12"/>
-      <c r="B2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="14"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="15"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="D6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="25"/>
+      <c r="B7" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="13" t="s">
+      <c r="E7" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="14"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="21"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="21"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="14"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="21"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="15"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
+    <row r="12" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="22"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="13" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="14"/>
-      <c r="B12" s="4" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="21"/>
+      <c r="B14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="14"/>
-      <c r="B13" s="4" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="21"/>
+      <c r="B15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="14"/>
-      <c r="B14" s="4" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="21"/>
+      <c r="B16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="15"/>
-      <c r="B15" s="7" t="s">
+    <row r="17" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="22"/>
+      <c r="B17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E17" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="13" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="14"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5" t="s">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="21"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="14"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="21"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E20" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="14"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="21"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E21" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="14"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="21"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="14"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5" t="s">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="21"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="21"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E24" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="14"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="21"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E25" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="14"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="21"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E26" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="14"/>
-      <c r="B24" s="5" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="21"/>
+      <c r="B27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E27" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="14"/>
-      <c r="B25" s="5" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="21"/>
+      <c r="B28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E28" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="14"/>
-      <c r="B26" s="5" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="21"/>
+      <c r="B29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E29" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="14"/>
-      <c r="B27" s="5" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="21"/>
+      <c r="B30" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="14"/>
-      <c r="B28" s="5" t="s">
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="21"/>
+      <c r="B31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="15"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8" t="s">
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="22"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="18"/>
+      <c r="E32" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A3:A5"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:A29"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A32"/>
+    <mergeCell ref="A3:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
